--- a/data/DATA_2024.xlsx
+++ b/data/DATA_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Visualisali_Data\Bencana_Dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462F44F0-FAD6-470B-ABBF-49077988EF6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD870E9-C264-4C1B-858F-FA4692509F5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6108" yWindow="3864" windowWidth="17280" windowHeight="8724" xr2:uid="{1225AA73-8112-48B1-BEE4-3EB961C12931}"/>
   </bookViews>
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA3DB86-FC75-46DC-B4AF-478B8A7A2EB5}">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
